--- a/biology/Botanique/Pilgerodendron_uviferum/Pilgerodendron_uviferum.xlsx
+++ b/biology/Botanique/Pilgerodendron_uviferum/Pilgerodendron_uviferum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cyprès de las Guaitecas (Pilgerodendron uviferum) est une espèce de la famille des Cupressaceae (conifères). C'est la seule espèce décrite à l'heure actuelle du genre Pilgerodendron.
 Ce conifère est endémique de l'Argentine et du Chili. Au Chili son habitat se situe depuis la région de Valdivia (forêt valdivienne) jusqu'à la Terre de Feu, c'est-à-dire depuis
